--- a/biology/Botanique/Verrucaria/Verrucaria.xlsx
+++ b/biology/Botanique/Verrucaria/Verrucaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verrucaria est un genre de lichens de la famille des Verrucariaceae. 
-Certains verrucaria peuvent mener une vie périodiquement subaquatique et sont classés parmi les lichens aquatiques[1]
-Selon Index Fungorum                                      (15 novembre 2013)[2] et MycoBank                                            (15 novembre 2013)[3], le nom de genre Verrucaria Schrad., 1794 est un nom conservé et le Verrucaria Scop., 1777 n’est pas valide (nom rejeté) et est remplacé par Dibaeis.
+Certains verrucaria peuvent mener une vie périodiquement subaquatique et sont classés parmi les lichens aquatiques
+Selon Index Fungorum                                      (15 novembre 2013) et MycoBank                                            (15 novembre 2013), le nom de genre Verrucaria Schrad., 1794 est un nom conservé et le Verrucaria Scop., 1777 n’est pas valide (nom rejeté) et est remplacé par Dibaeis.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (15 novembre 2013)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (15 novembre 2013) :
 Verrucaria acrotella
 Verrucaria adelminienii
 Verrucaria aethiobola
@@ -638,7 +652,7 @@
 Verrucaria weddellii
 Verrucaria xyloxena
 Verrucaria zamenhofiana
-Selon Index Fungorum                                      (15 novembre 2013)[2] :
+Selon Index Fungorum                                      (15 novembre 2013) :
 Dibaeis absoluta (Tuck.) Kalb &amp; Gierl 1993
 Dibaeis arcuata (Stirt.) Kalb &amp; Gierl 1993
 Dibaeis baeomyces (L. f.) Rambold &amp; Hertel 1993
@@ -653,9 +667,9 @@
 Dibaeis stipitata Kalb &amp; Gierl 1993
 Dibaeis umbrelliformis Kalb &amp; Gierl 1993
 Dibaeis weberi (J.W. Thomson) Kalb &amp; Gierl 1993
-Selon ITIS      (15 novembre 2013)[5] :
+Selon ITIS      (15 novembre 2013) :
 Verrucaria striatula Wahlenb.
-Selon NCBI  (15 novembre 2013)[6] :
+Selon NCBI  (15 novembre 2013) :
 Verrucaria aethiobola
 Verrucaria andesiatica
 Verrucaria anziana
